--- a/file/TGE-523-TaitungRestaurant.xlsx
+++ b/file/TGE-523-TaitungRestaurant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB27974-41A0-4749-A55D-71495EB4F38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D6A35C-66E6-1F43-BCB3-46413FF608EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="4820" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="22400" yWindow="9440" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,15 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,19 +87,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>台東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大巴六九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米巴奈山地美食坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴歌浪船屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大巴六九取自卑南族語Tamalakau的發音，開在海拔600公尺高的地方，上去的路很窄，我都笑稱大巴六九是大巴上不去，只有六、九人座才能上去的地方。除了我辦的旅行團以外，他們並不接旅行團生意。它有三甲多的山林地，拿其中的一甲地來種植生機蔬果，餐桌上的青菜都是從這裡摘取的，餐廳主人會把當日新鮮現摘的蔬菜擺上桌，想吃什麼，就自己動手汆燙。當然另外還有鮮甜雞湯、米飯、甜湯等您品嘗。在高山上吃飯，少不了美麗的夜景陪伴，在這裡，台東的美麗夜景就在您眼前，您一定會吃得很幸福。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米巴奈山地美食坊位在台東市區上，是一家很有原住民風味的特色餐廳，這裡有很多創意美食是在其他地方吃不到的。嚴長壽、謝金河、戴勝益等人到台東，一定會去吃一頓。他們有道菜叫「烤春筍」，是將山豬肉包裹在玉米筍上，用碳火慢烤，外鹹內甜的絕妙口感，吃了就忘不了！它可是申請專利的菜餚，以前只在台北亞都飯店才有賣。現在經過台東市時，一定要去吃吃看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴歌浪船屋既是民宿也是餐廳，他們堅持大自然就是最天然的冰箱，所有的食材都是當日捕獲、摘取的。我特別和他們協調菜色，給我們旅行團的餐點不只要好吃，還要夠驚豔！因此，當他們抬出一公尺長的烤魚料理、一公尺長的生魚片擺盤，還有用12小時烘烤的25公斤超大豬腿時，您是筷子先伸出來夾，還是手機先拿起來拍呢？這裡的無菜單料理，就是這麼厲害！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5203-TaitungRestaurant-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5203-TaitungRestaurant-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5203-TaitungRestaurant-03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pakelangbnb/</t>
+  </si>
+  <si>
+    <t>0911 037 535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+臺東縣台東縣長濱鄉樟原村大峰峰15號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長濱鄉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Taiwanese-Restaurant/%E7%B1%B3%E5%B7%B4%E5%A5%88%E5%B1%B1%E5%9C%B0%E7%BE%8E%E9%A3%9F%E5%9D%8A-107810484231956/</t>
+  </si>
+  <si>
+    <t>08 922 0336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市傳廣路470號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://da869.weebly.com/?fbclid=IwAR3Pz8E2IDid0gTcDHlLL64tKkR644e-0waFhCfvL3Euv3kCWHYUFXA9eX0</t>
+  </si>
+  <si>
+    <t>台東市</t>
+  </si>
+  <si>
+    <t>08 938 0341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣卑南鄉543-8號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 - 21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卑南鄉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -527,10 +595,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -551,110 +619,101 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="144">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="112">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="96">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
